--- a/Phigros.xlsx
+++ b/Phigros.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ICS\Learning material\编程学习\游宝\QQ机器人\youbaoBot\youbaoQQbot\plugins\guessSong\csv_songs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ICS\Learning material\编程学习\游宝\csv_songs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77E66467-76DF-427A-B78B-99D741F4F8AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86BBFF51-F37B-47A3-9C2C-628FC70D7450}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="516" uniqueCount="512">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="519" uniqueCount="515">
   <si>
     <t>更多的别称直接往后写，没有就不写</t>
   </si>
@@ -1920,6 +1920,18 @@
   </si>
   <si>
     <t>Parallel Retrogression</t>
+  </si>
+  <si>
+    <t>千紫万红</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>noym</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>明镜烈火</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2295,8 +2307,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H439"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A240" workbookViewId="0">
-      <selection activeCell="B249" sqref="B249"/>
+    <sheetView tabSelected="1" topLeftCell="A117" workbookViewId="0">
+      <selection activeCell="H128" sqref="H128"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="14"/>
@@ -2499,7 +2511,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="30.65" customHeight="1">
+    <row r="17" spans="1:7" ht="30.65" customHeight="1">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -2513,7 +2525,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="30.65" customHeight="1">
+    <row r="18" spans="1:7" ht="30.65" customHeight="1">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -2525,7 +2537,7 @@
       </c>
       <c r="D18" s="3"/>
     </row>
-    <row r="19" spans="1:6" ht="30.65" customHeight="1">
+    <row r="19" spans="1:7" ht="30.65" customHeight="1">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -2536,7 +2548,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="30.65" customHeight="1">
+    <row r="20" spans="1:7" ht="30.65" customHeight="1">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -2547,7 +2559,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="30.65" customHeight="1">
+    <row r="21" spans="1:7" ht="30.65" customHeight="1">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -2567,7 +2579,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="30.65" customHeight="1">
+    <row r="22" spans="1:7" ht="30.65" customHeight="1">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -2578,7 +2590,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="30.65" customHeight="1">
+    <row r="23" spans="1:7" ht="30.65" customHeight="1">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -2589,7 +2601,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="30.65" customHeight="1">
+    <row r="24" spans="1:7" ht="30.65" customHeight="1">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -2603,7 +2615,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="30.65" customHeight="1">
+    <row r="25" spans="1:7" ht="30.65" customHeight="1">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -2617,7 +2629,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="30.65" customHeight="1">
+    <row r="26" spans="1:7" ht="30.65" customHeight="1">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -2625,7 +2637,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="30.65" customHeight="1">
+    <row r="27" spans="1:7" ht="30.65" customHeight="1">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -2636,7 +2648,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="30.65" customHeight="1">
+    <row r="28" spans="1:7" ht="30.65" customHeight="1">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -2647,7 +2659,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="30.65" customHeight="1">
+    <row r="29" spans="1:7" ht="30.65" customHeight="1">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -2655,7 +2667,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="30.65" customHeight="1">
+    <row r="30" spans="1:7" ht="30.65" customHeight="1">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -2674,8 +2686,11 @@
       <c r="F30" s="3" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" ht="30.65" customHeight="1">
+      <c r="G30" s="3" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="30.65" customHeight="1">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -2689,7 +2704,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="30.65" customHeight="1">
+    <row r="32" spans="1:7" ht="30.65" customHeight="1">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -3758,6 +3773,9 @@
       <c r="B124" s="1" t="s">
         <v>132</v>
       </c>
+      <c r="C124" s="3" t="s">
+        <v>512</v>
+      </c>
     </row>
     <row r="125" spans="1:5" ht="30.65" customHeight="1">
       <c r="A125" s="1">
@@ -3765,6 +3783,9 @@
       </c>
       <c r="B125" s="1" t="s">
         <v>133</v>
+      </c>
+      <c r="C125" s="3" t="s">
+        <v>514</v>
       </c>
     </row>
     <row r="126" spans="1:5" ht="30.65" customHeight="1">
